--- a/biology/Botanique/Brachytheciaceae/Brachytheciaceae.xlsx
+++ b/biology/Botanique/Brachytheciaceae/Brachytheciaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Brachytheciaceae ou Brachytheciacées est une famille de Bryophytes (mousses) de l'ordre des Hypnales.
 </t>
@@ -511,9 +523,11 @@
           <t>Services écosystémiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs mousses de cette famille (du genre Brachythecium notamment) ont un rôle géologique et de puits de carbone en contribuant à la formation de travertins[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs mousses de cette famille (du genre Brachythecium notamment) ont un rôle géologique et de puits de carbone en contribuant à la formation de travertins
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (11 juin 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (11 juin 2013) :
 genre Aerolindigia
 genre Brachytheciella
 genre Brachythecium
@@ -583,7 +599,7 @@
 genre Tomentypnum
 genre Trachybryum
 genre Unclejackia
-Selon ITIS      (11 juin 2013)[3] :
+Selon ITIS      (11 juin 2013) :
 genre Bestia Broth.
 genre Brachythecium Schimp. in B.S.G.
 genre Bryhnia Kaur.
@@ -606,7 +622,7 @@
 genre Tomenthypnum Loeske
 genre Tomentypnum Loeske
 genre Trachybryum (Broth.) Schof.
-Selon NCBI  (11 juin 2013)[4] :
+Selon NCBI  (11 juin 2013) :
 genre Aerobryum
 genre Aerolindigia
 genre Brachytheciastrum
@@ -651,7 +667,7 @@
 genre Tomentypnum
 genre Trachybryum
 genre Zelometeorium
-Selon Tropicos                                           (11 juin 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 genre Aerolindigia M. Menzel
 genre Brachytheciastrum Ignatov &amp; Huttunen
 genre Brachytheciella Ignatov
